--- a/Code/Results/Cases/Case_3_74/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_74/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.016002189397561</v>
+        <v>1.043483244119445</v>
       </c>
       <c r="D2">
-        <v>1.035347717253522</v>
+        <v>1.051866369584021</v>
       </c>
       <c r="E2">
-        <v>1.020131084300009</v>
+        <v>1.041476039531331</v>
       </c>
       <c r="F2">
-        <v>1.040869120267295</v>
+        <v>1.062228763669788</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050719727047209</v>
+        <v>1.044373970303589</v>
       </c>
       <c r="J2">
-        <v>1.037714589539369</v>
+        <v>1.048553449909775</v>
       </c>
       <c r="K2">
-        <v>1.046335624180403</v>
+        <v>1.054616684860785</v>
       </c>
       <c r="L2">
-        <v>1.031316908225875</v>
+        <v>1.04425544724651</v>
       </c>
       <c r="M2">
-        <v>1.051786997956303</v>
+        <v>1.064950678572257</v>
       </c>
       <c r="N2">
-        <v>1.016052609113325</v>
+        <v>1.020019831758416</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.020728537053865</v>
+        <v>1.044477228607705</v>
       </c>
       <c r="D3">
-        <v>1.039060954893166</v>
+        <v>1.052671590926876</v>
       </c>
       <c r="E3">
-        <v>1.023944178384667</v>
+        <v>1.04232363705239</v>
       </c>
       <c r="F3">
-        <v>1.045197620088871</v>
+        <v>1.063191708835326</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052299812135773</v>
+        <v>1.044655656931538</v>
       </c>
       <c r="J3">
-        <v>1.040669640170521</v>
+        <v>1.049194079399179</v>
       </c>
       <c r="K3">
-        <v>1.049217295760453</v>
+        <v>1.05523465720853</v>
       </c>
       <c r="L3">
-        <v>1.034279588099539</v>
+        <v>1.044913583143965</v>
       </c>
       <c r="M3">
-        <v>1.055283093067628</v>
+        <v>1.065728026206772</v>
       </c>
       <c r="N3">
-        <v>1.017069773014438</v>
+        <v>1.020237273422024</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.023723785832974</v>
+        <v>1.045120796687535</v>
       </c>
       <c r="D4">
-        <v>1.041417285573707</v>
+        <v>1.053192975547602</v>
       </c>
       <c r="E4">
-        <v>1.026366319627489</v>
+        <v>1.042872765755254</v>
       </c>
       <c r="F4">
-        <v>1.047946264350625</v>
+        <v>1.063815519601944</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053292893117129</v>
+        <v>1.044836973774907</v>
       </c>
       <c r="J4">
-        <v>1.042539505248262</v>
+        <v>1.049608392617939</v>
       </c>
       <c r="K4">
-        <v>1.051040273700551</v>
+        <v>1.055634224643341</v>
       </c>
       <c r="L4">
-        <v>1.036156609325851</v>
+        <v>1.045339473285014</v>
       </c>
       <c r="M4">
-        <v>1.057498510775929</v>
+        <v>1.06623111874233</v>
       </c>
       <c r="N4">
-        <v>1.017712962671923</v>
+        <v>1.02037778952169</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.024968453014935</v>
+        <v>1.045391446325477</v>
       </c>
       <c r="D5">
-        <v>1.042397151864446</v>
+        <v>1.053412248967678</v>
       </c>
       <c r="E5">
-        <v>1.027374145002752</v>
+        <v>1.04310378031729</v>
       </c>
       <c r="F5">
-        <v>1.049089736925064</v>
+        <v>1.064077941132445</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053703544355299</v>
+        <v>1.044912970730451</v>
       </c>
       <c r="J5">
-        <v>1.043315803133398</v>
+        <v>1.04978251722917</v>
       </c>
       <c r="K5">
-        <v>1.051796989143386</v>
+        <v>1.055802129701518</v>
       </c>
       <c r="L5">
-        <v>1.036936435383374</v>
+        <v>1.045518524388832</v>
       </c>
       <c r="M5">
-        <v>1.058419034138415</v>
+        <v>1.066442641045123</v>
       </c>
       <c r="N5">
-        <v>1.017979879063133</v>
+        <v>1.02043681828751</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.025176601228444</v>
+        <v>1.045436895062367</v>
       </c>
       <c r="D6">
-        <v>1.042561056604594</v>
+        <v>1.053449070794646</v>
       </c>
       <c r="E6">
-        <v>1.027542761503023</v>
+        <v>1.043142578079948</v>
       </c>
       <c r="F6">
-        <v>1.049281036217683</v>
+        <v>1.064122012886433</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053772098579867</v>
+        <v>1.044925717533148</v>
       </c>
       <c r="J6">
-        <v>1.043445581720546</v>
+        <v>1.049811750407771</v>
       </c>
       <c r="K6">
-        <v>1.05192348693918</v>
+        <v>1.055830317390495</v>
       </c>
       <c r="L6">
-        <v>1.037066836518615</v>
+        <v>1.045548588237121</v>
       </c>
       <c r="M6">
-        <v>1.058572968732104</v>
+        <v>1.066478157845283</v>
       </c>
       <c r="N6">
-        <v>1.018024494395953</v>
+        <v>1.020446726874958</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.023740473542506</v>
+        <v>1.045124412754157</v>
       </c>
       <c r="D7">
-        <v>1.041430420300855</v>
+        <v>1.05319590516371</v>
       </c>
       <c r="E7">
-        <v>1.026379826789195</v>
+        <v>1.042875851952441</v>
       </c>
       <c r="F7">
-        <v>1.047961590302891</v>
+        <v>1.06381902541882</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05329840689834</v>
+        <v>1.044837990148908</v>
       </c>
       <c r="J7">
-        <v>1.042549916245638</v>
+        <v>1.049610719487378</v>
       </c>
       <c r="K7">
-        <v>1.051050422546844</v>
+        <v>1.055636468487132</v>
       </c>
       <c r="L7">
-        <v>1.036167065439541</v>
+        <v>1.045341865748585</v>
       </c>
       <c r="M7">
-        <v>1.057510852972501</v>
+        <v>1.066233945027622</v>
       </c>
       <c r="N7">
-        <v>1.017716542760624</v>
+        <v>1.020378578441064</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.017612868656578</v>
+        <v>1.043819083946909</v>
       </c>
       <c r="D8">
-        <v>1.036612455034105</v>
+        <v>1.052138424255614</v>
       </c>
       <c r="E8">
-        <v>1.02142932481399</v>
+        <v>1.041762348371233</v>
       </c>
       <c r="F8">
-        <v>1.04234303136346</v>
+        <v>1.062554045583421</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05125991298545</v>
+        <v>1.044469364729339</v>
       </c>
       <c r="J8">
-        <v>1.038722209677703</v>
+        <v>1.048769998109898</v>
       </c>
       <c r="K8">
-        <v>1.047318314276488</v>
+        <v>1.054825593562275</v>
       </c>
       <c r="L8">
-        <v>1.032326639899714</v>
+        <v>1.044477860191154</v>
       </c>
       <c r="M8">
-        <v>1.052978432294917</v>
+        <v>1.065213366273413</v>
       </c>
       <c r="N8">
-        <v>1.016399532708587</v>
+        <v>1.020093354911397</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.006306399209483</v>
+        <v>1.04152197015955</v>
       </c>
       <c r="D9">
-        <v>1.027749814413925</v>
+        <v>1.050277755666849</v>
       </c>
       <c r="E9">
-        <v>1.012342029458666</v>
+        <v>1.039805441206605</v>
       </c>
       <c r="F9">
-        <v>1.032022037507565</v>
+        <v>1.060330558454541</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047434352789216</v>
+        <v>1.043812518296459</v>
       </c>
       <c r="J9">
-        <v>1.031638410976371</v>
+        <v>1.047286911065883</v>
       </c>
       <c r="K9">
-        <v>1.040408160703576</v>
+        <v>1.053394450371197</v>
       </c>
       <c r="L9">
-        <v>1.025237989938922</v>
+        <v>1.042955654913875</v>
       </c>
       <c r="M9">
-        <v>1.044616097685315</v>
+        <v>1.063415757438564</v>
       </c>
       <c r="N9">
-        <v>1.013958963082334</v>
+        <v>1.019589366736693</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9983874743424626</v>
+        <v>1.039992641678471</v>
       </c>
       <c r="D10">
-        <v>1.021564666123416</v>
+        <v>1.049039220660363</v>
       </c>
       <c r="E10">
-        <v>1.006012685069192</v>
+        <v>1.038504415107861</v>
       </c>
       <c r="F10">
-        <v>1.024827940433316</v>
+        <v>1.058852041546026</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044713931724106</v>
+        <v>1.04336975061868</v>
       </c>
       <c r="J10">
-        <v>1.026665216468561</v>
+        <v>1.046297134349964</v>
       </c>
       <c r="K10">
-        <v>1.035555182071467</v>
+        <v>1.052438869504675</v>
       </c>
       <c r="L10">
-        <v>1.020274220664917</v>
+        <v>1.041941089501485</v>
       </c>
       <c r="M10">
-        <v>1.038762935834739</v>
+        <v>1.062217931319337</v>
       </c>
       <c r="N10">
-        <v>1.01224378183907</v>
+        <v>1.019252461637645</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.99485853283584</v>
+        <v>1.039330925903068</v>
       </c>
       <c r="D11">
-        <v>1.018814476348719</v>
+        <v>1.048503387522468</v>
       </c>
       <c r="E11">
-        <v>1.003201281240536</v>
+        <v>1.037941918297257</v>
       </c>
       <c r="F11">
-        <v>1.021631018388844</v>
+        <v>1.058212743578758</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04349245213754</v>
+        <v>1.043176877391684</v>
       </c>
       <c r="J11">
-        <v>1.024446778195681</v>
+        <v>1.045868309282419</v>
       </c>
       <c r="K11">
-        <v>1.033390092449746</v>
+        <v>1.052024749534467</v>
       </c>
       <c r="L11">
-        <v>1.018063077553522</v>
+        <v>1.041501837735689</v>
       </c>
       <c r="M11">
-        <v>1.036156218063116</v>
+        <v>1.061699408016274</v>
       </c>
       <c r="N11">
-        <v>1.011478347101258</v>
+        <v>1.019106365597927</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9935318234253844</v>
+        <v>1.039085209825089</v>
       </c>
       <c r="D12">
-        <v>1.01778153760764</v>
+        <v>1.048304425457984</v>
       </c>
       <c r="E12">
-        <v>1.002145779774778</v>
+        <v>1.037733111566584</v>
       </c>
       <c r="F12">
-        <v>1.020430558698638</v>
+        <v>1.05797541750915</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043031909057897</v>
+        <v>1.043105063006309</v>
       </c>
       <c r="J12">
-        <v>1.023612473383452</v>
+        <v>1.045708988369803</v>
       </c>
       <c r="K12">
-        <v>1.032575820395179</v>
+        <v>1.05187087549545</v>
       </c>
       <c r="L12">
-        <v>1.017231985172941</v>
+        <v>1.041338690096383</v>
       </c>
       <c r="M12">
-        <v>1.035176536729271</v>
+        <v>1.061506827752576</v>
       </c>
       <c r="N12">
-        <v>1.011190443025118</v>
+        <v>1.019052067203059</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9938171416126477</v>
+        <v>1.039137913373364</v>
       </c>
       <c r="D13">
-        <v>1.018003631950125</v>
+        <v>1.048347100302384</v>
       </c>
       <c r="E13">
-        <v>1.00237270613506</v>
+        <v>1.0377778954368</v>
       </c>
       <c r="F13">
-        <v>1.020688660327199</v>
+        <v>1.058026318511184</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043131011171333</v>
+        <v>1.043120475243827</v>
       </c>
       <c r="J13">
-        <v>1.02379190830742</v>
+        <v>1.045743164873522</v>
       </c>
       <c r="K13">
-        <v>1.032750948041219</v>
+        <v>1.051903884315625</v>
       </c>
       <c r="L13">
-        <v>1.017410707935119</v>
+        <v>1.041373685353212</v>
       </c>
       <c r="M13">
-        <v>1.035387208611399</v>
+        <v>1.061548135846568</v>
       </c>
       <c r="N13">
-        <v>1.011252364628494</v>
+        <v>1.019063715827952</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9947491963676595</v>
+        <v>1.039310613410342</v>
       </c>
       <c r="D14">
-        <v>1.018729329289604</v>
+        <v>1.048486939817835</v>
       </c>
       <c r="E14">
-        <v>1.003114265625877</v>
+        <v>1.037924655617478</v>
       </c>
       <c r="F14">
-        <v>1.021532056954822</v>
+        <v>1.05819312331778</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043454524624707</v>
+        <v>1.043170944712627</v>
       </c>
       <c r="J14">
-        <v>1.024378027052204</v>
+        <v>1.045855140500545</v>
       </c>
       <c r="K14">
-        <v>1.033322992664583</v>
+        <v>1.052012031303703</v>
       </c>
       <c r="L14">
-        <v>1.017994581575455</v>
+        <v>1.041488351692114</v>
       </c>
       <c r="M14">
-        <v>1.036075473936081</v>
+        <v>1.061683488810176</v>
       </c>
       <c r="N14">
-        <v>1.011454623069153</v>
+        <v>1.019101877922971</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9953213312766502</v>
+        <v>1.03941702950562</v>
       </c>
       <c r="D15">
-        <v>1.019174927225863</v>
+        <v>1.048573108893692</v>
       </c>
       <c r="E15">
-        <v>1.003569659653549</v>
+        <v>1.038015096616083</v>
       </c>
       <c r="F15">
-        <v>1.022049960062432</v>
+        <v>1.058295915535697</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043652937628289</v>
+        <v>1.043202017747512</v>
       </c>
       <c r="J15">
-        <v>1.024737776315389</v>
+        <v>1.045924127604169</v>
       </c>
       <c r="K15">
-        <v>1.033674099807697</v>
+        <v>1.052078657436951</v>
       </c>
       <c r="L15">
-        <v>1.018353014787568</v>
+        <v>1.041559002758648</v>
       </c>
       <c r="M15">
-        <v>1.036498004436977</v>
+        <v>1.061766887229014</v>
       </c>
       <c r="N15">
-        <v>1.011578760506909</v>
+        <v>1.019125386642132</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9986194981146387</v>
+        <v>1.040036568013983</v>
       </c>
       <c r="D16">
-        <v>1.021745621904211</v>
+        <v>1.049074791933196</v>
       </c>
       <c r="E16">
-        <v>1.006197728459524</v>
+        <v>1.038541764291719</v>
       </c>
       <c r="F16">
-        <v>1.025038328046306</v>
+        <v>1.058894488896504</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044794055871905</v>
+        <v>1.04338252674259</v>
       </c>
       <c r="J16">
-        <v>1.026811034412011</v>
+        <v>1.046325588946535</v>
       </c>
       <c r="K16">
-        <v>1.035697488566774</v>
+        <v>1.052466346029896</v>
       </c>
       <c r="L16">
-        <v>1.020419623821187</v>
+        <v>1.04197024255928</v>
       </c>
       <c r="M16">
-        <v>1.038934364589421</v>
+        <v>1.062252347094915</v>
       </c>
       <c r="N16">
-        <v>1.012294087704231</v>
+        <v>1.019262153070853</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.000660978114473</v>
+        <v>1.040425320622003</v>
       </c>
       <c r="D17">
-        <v>1.023338481714263</v>
+        <v>1.049389608500678</v>
       </c>
       <c r="E17">
-        <v>1.007826899071793</v>
+        <v>1.038872358921712</v>
       </c>
       <c r="F17">
-        <v>1.026890474293669</v>
+        <v>1.059270202386393</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045497997533275</v>
+        <v>1.043495447136254</v>
       </c>
       <c r="J17">
-        <v>1.028093779583635</v>
+        <v>1.046577349847885</v>
       </c>
       <c r="K17">
-        <v>1.036949313678389</v>
+        <v>1.052709440401757</v>
       </c>
       <c r="L17">
-        <v>1.021699072158233</v>
+        <v>1.04222821948087</v>
       </c>
       <c r="M17">
-        <v>1.040442890140321</v>
+        <v>1.062556902208949</v>
       </c>
       <c r="N17">
-        <v>1.012736586772842</v>
+        <v>1.019347885992276</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.001842153594888</v>
+        <v>1.040652121029322</v>
       </c>
       <c r="D18">
-        <v>1.024260666272201</v>
+        <v>1.049573280060818</v>
       </c>
       <c r="E18">
-        <v>1.008770381825153</v>
+        <v>1.039065271706981</v>
       </c>
       <c r="F18">
-        <v>1.027962953235648</v>
+        <v>1.05948943740543</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045904416670162</v>
+        <v>1.043561200524135</v>
       </c>
       <c r="J18">
-        <v>1.028835746776229</v>
+        <v>1.046724174018328</v>
       </c>
       <c r="K18">
-        <v>1.03767336901531</v>
+        <v>1.052851199693308</v>
       </c>
       <c r="L18">
-        <v>1.022439425039478</v>
+        <v>1.042378698962709</v>
       </c>
       <c r="M18">
-        <v>1.041315856374004</v>
+        <v>1.062734557824755</v>
       </c>
       <c r="N18">
-        <v>1.012992506035622</v>
+        <v>1.01939787189454</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.002243303767888</v>
+        <v>1.040729462164631</v>
       </c>
       <c r="D19">
-        <v>1.024573953403729</v>
+        <v>1.049635914813765</v>
       </c>
       <c r="E19">
-        <v>1.009090951489085</v>
+        <v>1.039131063949257</v>
       </c>
       <c r="F19">
-        <v>1.028327329978721</v>
+        <v>1.059564205725876</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046042294966131</v>
+        <v>1.0435836018628</v>
       </c>
       <c r="J19">
-        <v>1.02908769553561</v>
+        <v>1.046774233225783</v>
       </c>
       <c r="K19">
-        <v>1.037919230562443</v>
+        <v>1.052899530237288</v>
       </c>
       <c r="L19">
-        <v>1.022690875142463</v>
+        <v>1.042430009556706</v>
       </c>
       <c r="M19">
-        <v>1.041612356424722</v>
+        <v>1.062795136108677</v>
       </c>
       <c r="N19">
-        <v>1.013079402576686</v>
+        <v>1.019414912281484</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.000442944236063</v>
+        <v>1.040383606220524</v>
       </c>
       <c r="D20">
-        <v>1.023168301079366</v>
+        <v>1.049355827064376</v>
       </c>
       <c r="E20">
-        <v>1.007652810414423</v>
+        <v>1.038836880702724</v>
       </c>
       <c r="F20">
-        <v>1.026692572951069</v>
+        <v>1.059229882806466</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045422905468534</v>
+        <v>1.043483343342483</v>
       </c>
       <c r="J20">
-        <v>1.027956801797644</v>
+        <v>1.046550340732868</v>
       </c>
       <c r="K20">
-        <v>1.036815640414863</v>
+        <v>1.052683362140588</v>
       </c>
       <c r="L20">
-        <v>1.021562416025625</v>
+        <v>1.042200540382127</v>
       </c>
       <c r="M20">
-        <v>1.040281760571639</v>
+        <v>1.062524224896995</v>
       </c>
       <c r="N20">
-        <v>1.012689337791271</v>
+        <v>1.019338689795871</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9944751758827347</v>
+        <v>1.039259755490067</v>
       </c>
       <c r="D21">
-        <v>1.018515948968599</v>
+        <v>1.048445758619408</v>
       </c>
       <c r="E21">
-        <v>1.002896209543941</v>
+        <v>1.037881434815597</v>
       </c>
       <c r="F21">
-        <v>1.021284061750639</v>
+        <v>1.058143999651586</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043359449007903</v>
+        <v>1.043156087475772</v>
       </c>
       <c r="J21">
-        <v>1.024205717701996</v>
+        <v>1.045822167463051</v>
       </c>
       <c r="K21">
-        <v>1.033154821622577</v>
+        <v>1.051980186125566</v>
       </c>
       <c r="L21">
-        <v>1.01782291930835</v>
+        <v>1.041454585030569</v>
       </c>
       <c r="M21">
-        <v>1.035873117299441</v>
+        <v>1.061643630111406</v>
       </c>
       <c r="N21">
-        <v>1.011395163456789</v>
+        <v>1.019090641013019</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9906305062121959</v>
+        <v>1.038553577920274</v>
       </c>
       <c r="D22">
-        <v>1.015524579256365</v>
+        <v>1.047873969243588</v>
       </c>
       <c r="E22">
-        <v>0.9998403014692413</v>
+        <v>1.037281458566821</v>
       </c>
       <c r="F22">
-        <v>1.01780803886926</v>
+        <v>1.057462058770831</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042022388239401</v>
+        <v>1.042949329833282</v>
       </c>
       <c r="J22">
-        <v>1.021787516178663</v>
+        <v>1.045364126973178</v>
       </c>
       <c r="K22">
-        <v>1.03079463961957</v>
+        <v>1.051537774174649</v>
       </c>
       <c r="L22">
-        <v>1.015414922682682</v>
+        <v>1.040985631662064</v>
       </c>
       <c r="M22">
-        <v>1.033034781517858</v>
+        <v>1.061090095114705</v>
       </c>
       <c r="N22">
-        <v>1.010560615194479</v>
+        <v>1.018934498949842</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9926777173069216</v>
+        <v>1.038927894903894</v>
       </c>
       <c r="D23">
-        <v>1.017116845953874</v>
+        <v>1.048177046716038</v>
       </c>
       <c r="E23">
-        <v>1.001466688899608</v>
+        <v>1.037599445850299</v>
       </c>
       <c r="F23">
-        <v>1.019658140836754</v>
+        <v>1.057823492656955</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042735054414594</v>
+        <v>1.04305903052752</v>
       </c>
       <c r="J23">
-        <v>1.023075294136136</v>
+        <v>1.045606962500695</v>
       </c>
       <c r="K23">
-        <v>1.032051532390007</v>
+        <v>1.051772333061012</v>
       </c>
       <c r="L23">
-        <v>1.01669700703114</v>
+        <v>1.041234226933222</v>
       </c>
       <c r="M23">
-        <v>1.034545937929782</v>
+        <v>1.061383521893332</v>
       </c>
       <c r="N23">
-        <v>1.011005061207053</v>
+        <v>1.019017290142248</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.000541493917498</v>
+        <v>1.040402455015907</v>
       </c>
       <c r="D24">
-        <v>1.023245219674954</v>
+        <v>1.049371091304278</v>
       </c>
       <c r="E24">
-        <v>1.007731494509643</v>
+        <v>1.038852911527815</v>
       </c>
       <c r="F24">
-        <v>1.026782020247784</v>
+        <v>1.059248101218195</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045456849230524</v>
+        <v>1.043488812869389</v>
       </c>
       <c r="J24">
-        <v>1.028018715397979</v>
+        <v>1.046562545062618</v>
       </c>
       <c r="K24">
-        <v>1.036876060464377</v>
+        <v>1.052695145887964</v>
       </c>
       <c r="L24">
-        <v>1.02162418333225</v>
+        <v>1.042213047357205</v>
       </c>
       <c r="M24">
-        <v>1.040354589465688</v>
+        <v>1.062538990325189</v>
       </c>
       <c r="N24">
-        <v>1.012710694305879</v>
+        <v>1.019342845225041</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.009293563032227</v>
+        <v>1.042115464993377</v>
       </c>
       <c r="D25">
-        <v>1.030087777579004</v>
+        <v>1.05075845095103</v>
       </c>
       <c r="E25">
-        <v>1.014737057658885</v>
+        <v>1.040310722493766</v>
       </c>
       <c r="F25">
-        <v>1.034743127454115</v>
+        <v>1.060904716680806</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048452312398088</v>
+        <v>1.043983189102252</v>
       </c>
       <c r="J25">
-        <v>1.033512159103742</v>
+        <v>1.047670513193927</v>
       </c>
       <c r="K25">
-        <v>1.042236307806155</v>
+        <v>1.053764700392008</v>
       </c>
       <c r="L25">
-        <v>1.027110827569527</v>
+        <v>1.043349143009977</v>
       </c>
       <c r="M25">
-        <v>1.046825021192799</v>
+        <v>1.063880384218365</v>
       </c>
       <c r="N25">
-        <v>1.01460485760392</v>
+        <v>1.01971982215533</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_74/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_74/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.043483244119445</v>
+        <v>1.016002189397561</v>
       </c>
       <c r="D2">
-        <v>1.051866369584021</v>
+        <v>1.035347717253522</v>
       </c>
       <c r="E2">
-        <v>1.041476039531331</v>
+        <v>1.020131084300009</v>
       </c>
       <c r="F2">
-        <v>1.062228763669788</v>
+        <v>1.040869120267295</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044373970303589</v>
+        <v>1.050719727047209</v>
       </c>
       <c r="J2">
-        <v>1.048553449909775</v>
+        <v>1.037714589539369</v>
       </c>
       <c r="K2">
-        <v>1.054616684860785</v>
+        <v>1.046335624180403</v>
       </c>
       <c r="L2">
-        <v>1.04425544724651</v>
+        <v>1.031316908225874</v>
       </c>
       <c r="M2">
-        <v>1.064950678572257</v>
+        <v>1.051786997956303</v>
       </c>
       <c r="N2">
-        <v>1.020019831758416</v>
+        <v>1.016052609113325</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.044477228607705</v>
+        <v>1.020728537053865</v>
       </c>
       <c r="D3">
-        <v>1.052671590926876</v>
+        <v>1.039060954893166</v>
       </c>
       <c r="E3">
-        <v>1.04232363705239</v>
+        <v>1.023944178384668</v>
       </c>
       <c r="F3">
-        <v>1.063191708835326</v>
+        <v>1.045197620088871</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044655656931538</v>
+        <v>1.052299812135773</v>
       </c>
       <c r="J3">
-        <v>1.049194079399179</v>
+        <v>1.040669640170521</v>
       </c>
       <c r="K3">
-        <v>1.05523465720853</v>
+        <v>1.049217295760453</v>
       </c>
       <c r="L3">
-        <v>1.044913583143965</v>
+        <v>1.034279588099539</v>
       </c>
       <c r="M3">
-        <v>1.065728026206772</v>
+        <v>1.055283093067628</v>
       </c>
       <c r="N3">
-        <v>1.020237273422024</v>
+        <v>1.017069773014438</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.045120796687535</v>
+        <v>1.023723785832974</v>
       </c>
       <c r="D4">
-        <v>1.053192975547602</v>
+        <v>1.041417285573708</v>
       </c>
       <c r="E4">
-        <v>1.042872765755254</v>
+        <v>1.02636631962749</v>
       </c>
       <c r="F4">
-        <v>1.063815519601944</v>
+        <v>1.047946264350626</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044836973774907</v>
+        <v>1.053292893117129</v>
       </c>
       <c r="J4">
-        <v>1.049608392617939</v>
+        <v>1.042539505248262</v>
       </c>
       <c r="K4">
-        <v>1.055634224643341</v>
+        <v>1.051040273700551</v>
       </c>
       <c r="L4">
-        <v>1.045339473285014</v>
+        <v>1.036156609325851</v>
       </c>
       <c r="M4">
-        <v>1.06623111874233</v>
+        <v>1.057498510775929</v>
       </c>
       <c r="N4">
-        <v>1.02037778952169</v>
+        <v>1.017712962671923</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.045391446325477</v>
+        <v>1.024968453014934</v>
       </c>
       <c r="D5">
-        <v>1.053412248967678</v>
+        <v>1.042397151864446</v>
       </c>
       <c r="E5">
-        <v>1.04310378031729</v>
+        <v>1.027374145002752</v>
       </c>
       <c r="F5">
-        <v>1.064077941132445</v>
+        <v>1.049089736925064</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044912970730451</v>
+        <v>1.053703544355299</v>
       </c>
       <c r="J5">
-        <v>1.04978251722917</v>
+        <v>1.043315803133398</v>
       </c>
       <c r="K5">
-        <v>1.055802129701518</v>
+        <v>1.051796989143386</v>
       </c>
       <c r="L5">
-        <v>1.045518524388832</v>
+        <v>1.036936435383373</v>
       </c>
       <c r="M5">
-        <v>1.066442641045123</v>
+        <v>1.058419034138415</v>
       </c>
       <c r="N5">
-        <v>1.02043681828751</v>
+        <v>1.017979879063133</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.045436895062367</v>
+        <v>1.025176601228445</v>
       </c>
       <c r="D6">
-        <v>1.053449070794646</v>
+        <v>1.042561056604595</v>
       </c>
       <c r="E6">
-        <v>1.043142578079948</v>
+        <v>1.027542761503024</v>
       </c>
       <c r="F6">
-        <v>1.064122012886433</v>
+        <v>1.049281036217683</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044925717533148</v>
+        <v>1.053772098579867</v>
       </c>
       <c r="J6">
-        <v>1.049811750407771</v>
+        <v>1.043445581720547</v>
       </c>
       <c r="K6">
-        <v>1.055830317390495</v>
+        <v>1.051923486939181</v>
       </c>
       <c r="L6">
-        <v>1.045548588237121</v>
+        <v>1.037066836518616</v>
       </c>
       <c r="M6">
-        <v>1.066478157845283</v>
+        <v>1.058572968732105</v>
       </c>
       <c r="N6">
-        <v>1.020446726874958</v>
+        <v>1.018024494395954</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.045124412754157</v>
+        <v>1.023740473542507</v>
       </c>
       <c r="D7">
-        <v>1.05319590516371</v>
+        <v>1.041430420300856</v>
       </c>
       <c r="E7">
-        <v>1.042875851952441</v>
+        <v>1.026379826789195</v>
       </c>
       <c r="F7">
-        <v>1.06381902541882</v>
+        <v>1.047961590302892</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044837990148908</v>
+        <v>1.053298406898341</v>
       </c>
       <c r="J7">
-        <v>1.049610719487378</v>
+        <v>1.042549916245639</v>
       </c>
       <c r="K7">
-        <v>1.055636468487132</v>
+        <v>1.051050422546845</v>
       </c>
       <c r="L7">
-        <v>1.045341865748585</v>
+        <v>1.036167065439541</v>
       </c>
       <c r="M7">
-        <v>1.066233945027622</v>
+        <v>1.057510852972501</v>
       </c>
       <c r="N7">
-        <v>1.020378578441064</v>
+        <v>1.017716542760625</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.043819083946909</v>
+        <v>1.017612868656578</v>
       </c>
       <c r="D8">
-        <v>1.052138424255614</v>
+        <v>1.036612455034105</v>
       </c>
       <c r="E8">
-        <v>1.041762348371233</v>
+        <v>1.021429324813989</v>
       </c>
       <c r="F8">
-        <v>1.062554045583421</v>
+        <v>1.042343031363459</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044469364729339</v>
+        <v>1.05125991298545</v>
       </c>
       <c r="J8">
-        <v>1.048769998109898</v>
+        <v>1.038722209677703</v>
       </c>
       <c r="K8">
-        <v>1.054825593562275</v>
+        <v>1.047318314276488</v>
       </c>
       <c r="L8">
-        <v>1.044477860191154</v>
+        <v>1.032326639899713</v>
       </c>
       <c r="M8">
-        <v>1.065213366273413</v>
+        <v>1.052978432294917</v>
       </c>
       <c r="N8">
-        <v>1.020093354911397</v>
+        <v>1.016399532708587</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.04152197015955</v>
+        <v>1.006306399209483</v>
       </c>
       <c r="D9">
-        <v>1.050277755666849</v>
+        <v>1.027749814413925</v>
       </c>
       <c r="E9">
-        <v>1.039805441206605</v>
+        <v>1.012342029458666</v>
       </c>
       <c r="F9">
-        <v>1.060330558454541</v>
+        <v>1.032022037507566</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043812518296459</v>
+        <v>1.047434352789216</v>
       </c>
       <c r="J9">
-        <v>1.047286911065883</v>
+        <v>1.031638410976371</v>
       </c>
       <c r="K9">
-        <v>1.053394450371197</v>
+        <v>1.040408160703576</v>
       </c>
       <c r="L9">
-        <v>1.042955654913875</v>
+        <v>1.025237989938922</v>
       </c>
       <c r="M9">
-        <v>1.063415757438564</v>
+        <v>1.044616097685315</v>
       </c>
       <c r="N9">
-        <v>1.019589366736693</v>
+        <v>1.013958963082334</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.039992641678471</v>
+        <v>0.9983874743424616</v>
       </c>
       <c r="D10">
-        <v>1.049039220660363</v>
+        <v>1.021564666123415</v>
       </c>
       <c r="E10">
-        <v>1.038504415107861</v>
+        <v>1.006012685069192</v>
       </c>
       <c r="F10">
-        <v>1.058852041546026</v>
+        <v>1.024827940433315</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04336975061868</v>
+        <v>1.044713931724106</v>
       </c>
       <c r="J10">
-        <v>1.046297134349964</v>
+        <v>1.02666521646856</v>
       </c>
       <c r="K10">
-        <v>1.052438869504675</v>
+        <v>1.035555182071466</v>
       </c>
       <c r="L10">
-        <v>1.041941089501485</v>
+        <v>1.020274220664916</v>
       </c>
       <c r="M10">
-        <v>1.062217931319337</v>
+        <v>1.038762935834738</v>
       </c>
       <c r="N10">
-        <v>1.019252461637645</v>
+        <v>1.01224378183907</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.039330925903068</v>
+        <v>0.9948585328358396</v>
       </c>
       <c r="D11">
-        <v>1.048503387522468</v>
+        <v>1.018814476348719</v>
       </c>
       <c r="E11">
-        <v>1.037941918297257</v>
+        <v>1.003201281240535</v>
       </c>
       <c r="F11">
-        <v>1.058212743578758</v>
+        <v>1.021631018388845</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043176877391684</v>
+        <v>1.04349245213754</v>
       </c>
       <c r="J11">
-        <v>1.045868309282419</v>
+        <v>1.02444677819568</v>
       </c>
       <c r="K11">
-        <v>1.052024749534467</v>
+        <v>1.033390092449746</v>
       </c>
       <c r="L11">
-        <v>1.041501837735689</v>
+        <v>1.018063077553521</v>
       </c>
       <c r="M11">
-        <v>1.061699408016274</v>
+        <v>1.036156218063116</v>
       </c>
       <c r="N11">
-        <v>1.019106365597927</v>
+        <v>1.011478347101258</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.039085209825089</v>
+        <v>0.9935318234253856</v>
       </c>
       <c r="D12">
-        <v>1.048304425457984</v>
+        <v>1.017781537607641</v>
       </c>
       <c r="E12">
-        <v>1.037733111566584</v>
+        <v>1.002145779774779</v>
       </c>
       <c r="F12">
-        <v>1.05797541750915</v>
+        <v>1.020430558698639</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043105063006309</v>
+        <v>1.043031909057898</v>
       </c>
       <c r="J12">
-        <v>1.045708988369803</v>
+        <v>1.023612473383453</v>
       </c>
       <c r="K12">
-        <v>1.05187087549545</v>
+        <v>1.03257582039518</v>
       </c>
       <c r="L12">
-        <v>1.041338690096383</v>
+        <v>1.017231985172942</v>
       </c>
       <c r="M12">
-        <v>1.061506827752576</v>
+        <v>1.035176536729272</v>
       </c>
       <c r="N12">
-        <v>1.019052067203059</v>
+        <v>1.011190443025118</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.039137913373364</v>
+        <v>0.9938171416126483</v>
       </c>
       <c r="D13">
-        <v>1.048347100302384</v>
+        <v>1.018003631950126</v>
       </c>
       <c r="E13">
-        <v>1.0377778954368</v>
+        <v>1.002372706135061</v>
       </c>
       <c r="F13">
-        <v>1.058026318511184</v>
+        <v>1.0206886603272</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043120475243827</v>
+        <v>1.043131011171333</v>
       </c>
       <c r="J13">
-        <v>1.045743164873522</v>
+        <v>1.023791908307421</v>
       </c>
       <c r="K13">
-        <v>1.051903884315625</v>
+        <v>1.03275094804122</v>
       </c>
       <c r="L13">
-        <v>1.041373685353212</v>
+        <v>1.017410707935119</v>
       </c>
       <c r="M13">
-        <v>1.061548135846568</v>
+        <v>1.035387208611399</v>
       </c>
       <c r="N13">
-        <v>1.019063715827952</v>
+        <v>1.011252364628494</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.039310613410342</v>
+        <v>0.9947491963676588</v>
       </c>
       <c r="D14">
-        <v>1.048486939817835</v>
+        <v>1.018729329289604</v>
       </c>
       <c r="E14">
-        <v>1.037924655617478</v>
+        <v>1.003114265625877</v>
       </c>
       <c r="F14">
-        <v>1.05819312331778</v>
+        <v>1.021532056954821</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043170944712627</v>
+        <v>1.043454524624707</v>
       </c>
       <c r="J14">
-        <v>1.045855140500545</v>
+        <v>1.024378027052204</v>
       </c>
       <c r="K14">
-        <v>1.052012031303703</v>
+        <v>1.033322992664583</v>
       </c>
       <c r="L14">
-        <v>1.041488351692114</v>
+        <v>1.017994581575455</v>
       </c>
       <c r="M14">
-        <v>1.061683488810176</v>
+        <v>1.036075473936081</v>
       </c>
       <c r="N14">
-        <v>1.019101877922971</v>
+        <v>1.011454623069152</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.03941702950562</v>
+        <v>0.9953213312766507</v>
       </c>
       <c r="D15">
-        <v>1.048573108893692</v>
+        <v>1.019174927225863</v>
       </c>
       <c r="E15">
-        <v>1.038015096616083</v>
+        <v>1.003569659653549</v>
       </c>
       <c r="F15">
-        <v>1.058295915535697</v>
+        <v>1.022049960062433</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043202017747512</v>
+        <v>1.043652937628289</v>
       </c>
       <c r="J15">
-        <v>1.045924127604169</v>
+        <v>1.024737776315389</v>
       </c>
       <c r="K15">
-        <v>1.052078657436951</v>
+        <v>1.033674099807698</v>
       </c>
       <c r="L15">
-        <v>1.041559002758648</v>
+        <v>1.018353014787568</v>
       </c>
       <c r="M15">
-        <v>1.061766887229014</v>
+        <v>1.036498004436978</v>
       </c>
       <c r="N15">
-        <v>1.019125386642132</v>
+        <v>1.011578760506909</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.040036568013983</v>
+        <v>0.9986194981146386</v>
       </c>
       <c r="D16">
-        <v>1.049074791933196</v>
+        <v>1.021745621904211</v>
       </c>
       <c r="E16">
-        <v>1.038541764291719</v>
+        <v>1.006197728459524</v>
       </c>
       <c r="F16">
-        <v>1.058894488896504</v>
+        <v>1.025038328046306</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04338252674259</v>
+        <v>1.044794055871905</v>
       </c>
       <c r="J16">
-        <v>1.046325588946535</v>
+        <v>1.026811034412011</v>
       </c>
       <c r="K16">
-        <v>1.052466346029896</v>
+        <v>1.035697488566775</v>
       </c>
       <c r="L16">
-        <v>1.04197024255928</v>
+        <v>1.020419623821187</v>
       </c>
       <c r="M16">
-        <v>1.062252347094915</v>
+        <v>1.038934364589421</v>
       </c>
       <c r="N16">
-        <v>1.019262153070853</v>
+        <v>1.012294087704231</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.040425320622003</v>
+        <v>1.000660978114473</v>
       </c>
       <c r="D17">
-        <v>1.049389608500678</v>
+        <v>1.023338481714263</v>
       </c>
       <c r="E17">
-        <v>1.038872358921712</v>
+        <v>1.007826899071793</v>
       </c>
       <c r="F17">
-        <v>1.059270202386393</v>
+        <v>1.026890474293669</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043495447136254</v>
+        <v>1.045497997533275</v>
       </c>
       <c r="J17">
-        <v>1.046577349847885</v>
+        <v>1.028093779583635</v>
       </c>
       <c r="K17">
-        <v>1.052709440401757</v>
+        <v>1.036949313678389</v>
       </c>
       <c r="L17">
-        <v>1.04222821948087</v>
+        <v>1.021699072158233</v>
       </c>
       <c r="M17">
-        <v>1.062556902208949</v>
+        <v>1.040442890140321</v>
       </c>
       <c r="N17">
-        <v>1.019347885992276</v>
+        <v>1.012736586772842</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.040652121029322</v>
+        <v>1.001842153594888</v>
       </c>
       <c r="D18">
-        <v>1.049573280060818</v>
+        <v>1.024260666272201</v>
       </c>
       <c r="E18">
-        <v>1.039065271706981</v>
+        <v>1.008770381825153</v>
       </c>
       <c r="F18">
-        <v>1.05948943740543</v>
+        <v>1.027962953235648</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043561200524135</v>
+        <v>1.045904416670162</v>
       </c>
       <c r="J18">
-        <v>1.046724174018328</v>
+        <v>1.028835746776229</v>
       </c>
       <c r="K18">
-        <v>1.052851199693308</v>
+        <v>1.03767336901531</v>
       </c>
       <c r="L18">
-        <v>1.042378698962709</v>
+        <v>1.022439425039477</v>
       </c>
       <c r="M18">
-        <v>1.062734557824755</v>
+        <v>1.041315856374004</v>
       </c>
       <c r="N18">
-        <v>1.01939787189454</v>
+        <v>1.012992506035622</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.040729462164631</v>
+        <v>1.002243303767887</v>
       </c>
       <c r="D19">
-        <v>1.049635914813765</v>
+        <v>1.024573953403728</v>
       </c>
       <c r="E19">
-        <v>1.039131063949257</v>
+        <v>1.009090951489084</v>
       </c>
       <c r="F19">
-        <v>1.059564205725876</v>
+        <v>1.028327329978719</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.0435836018628</v>
+        <v>1.046042294966131</v>
       </c>
       <c r="J19">
-        <v>1.046774233225783</v>
+        <v>1.029087695535609</v>
       </c>
       <c r="K19">
-        <v>1.052899530237288</v>
+        <v>1.037919230562442</v>
       </c>
       <c r="L19">
-        <v>1.042430009556706</v>
+        <v>1.022690875142463</v>
       </c>
       <c r="M19">
-        <v>1.062795136108677</v>
+        <v>1.041612356424721</v>
       </c>
       <c r="N19">
-        <v>1.019414912281484</v>
+        <v>1.013079402576686</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.040383606220524</v>
+        <v>1.000442944236063</v>
       </c>
       <c r="D20">
-        <v>1.049355827064376</v>
+        <v>1.023168301079366</v>
       </c>
       <c r="E20">
-        <v>1.038836880702724</v>
+        <v>1.007652810414423</v>
       </c>
       <c r="F20">
-        <v>1.059229882806466</v>
+        <v>1.026692572951069</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043483343342483</v>
+        <v>1.045422905468534</v>
       </c>
       <c r="J20">
-        <v>1.046550340732868</v>
+        <v>1.027956801797645</v>
       </c>
       <c r="K20">
-        <v>1.052683362140588</v>
+        <v>1.036815640414863</v>
       </c>
       <c r="L20">
-        <v>1.042200540382127</v>
+        <v>1.021562416025625</v>
       </c>
       <c r="M20">
-        <v>1.062524224896995</v>
+        <v>1.04028176057164</v>
       </c>
       <c r="N20">
-        <v>1.019338689795871</v>
+        <v>1.012689337791271</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.039259755490067</v>
+        <v>0.9944751758827343</v>
       </c>
       <c r="D21">
-        <v>1.048445758619408</v>
+        <v>1.018515948968599</v>
       </c>
       <c r="E21">
-        <v>1.037881434815597</v>
+        <v>1.002896209543941</v>
       </c>
       <c r="F21">
-        <v>1.058143999651586</v>
+        <v>1.021284061750638</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043156087475772</v>
+        <v>1.043359449007902</v>
       </c>
       <c r="J21">
-        <v>1.045822167463051</v>
+        <v>1.024205717701995</v>
       </c>
       <c r="K21">
-        <v>1.051980186125566</v>
+        <v>1.033154821622577</v>
       </c>
       <c r="L21">
-        <v>1.041454585030569</v>
+        <v>1.017822919308349</v>
       </c>
       <c r="M21">
-        <v>1.061643630111406</v>
+        <v>1.03587311729944</v>
       </c>
       <c r="N21">
-        <v>1.019090641013019</v>
+        <v>1.011395163456789</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.038553577920274</v>
+        <v>0.9906305062121959</v>
       </c>
       <c r="D22">
-        <v>1.047873969243588</v>
+        <v>1.015524579256365</v>
       </c>
       <c r="E22">
-        <v>1.037281458566821</v>
+        <v>0.9998403014692412</v>
       </c>
       <c r="F22">
-        <v>1.057462058770831</v>
+        <v>1.01780803886926</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042949329833282</v>
+        <v>1.042022388239401</v>
       </c>
       <c r="J22">
-        <v>1.045364126973178</v>
+        <v>1.021787516178663</v>
       </c>
       <c r="K22">
-        <v>1.051537774174649</v>
+        <v>1.03079463961957</v>
       </c>
       <c r="L22">
-        <v>1.040985631662064</v>
+        <v>1.015414922682682</v>
       </c>
       <c r="M22">
-        <v>1.061090095114705</v>
+        <v>1.033034781517858</v>
       </c>
       <c r="N22">
-        <v>1.018934498949842</v>
+        <v>1.010560615194479</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.038927894903894</v>
+        <v>0.9926777173069203</v>
       </c>
       <c r="D23">
-        <v>1.048177046716038</v>
+        <v>1.017116845953874</v>
       </c>
       <c r="E23">
-        <v>1.037599445850299</v>
+        <v>1.001466688899607</v>
       </c>
       <c r="F23">
-        <v>1.057823492656955</v>
+        <v>1.019658140836753</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04305903052752</v>
+        <v>1.042735054414593</v>
       </c>
       <c r="J23">
-        <v>1.045606962500695</v>
+        <v>1.023075294136135</v>
       </c>
       <c r="K23">
-        <v>1.051772333061012</v>
+        <v>1.032051532390006</v>
       </c>
       <c r="L23">
-        <v>1.041234226933222</v>
+        <v>1.016697007031139</v>
       </c>
       <c r="M23">
-        <v>1.061383521893332</v>
+        <v>1.034545937929781</v>
       </c>
       <c r="N23">
-        <v>1.019017290142248</v>
+        <v>1.011005061207052</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.040402455015907</v>
+        <v>1.000541493917498</v>
       </c>
       <c r="D24">
-        <v>1.049371091304278</v>
+        <v>1.023245219674954</v>
       </c>
       <c r="E24">
-        <v>1.038852911527815</v>
+        <v>1.007731494509642</v>
       </c>
       <c r="F24">
-        <v>1.059248101218195</v>
+        <v>1.026782020247783</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043488812869389</v>
+        <v>1.045456849230524</v>
       </c>
       <c r="J24">
-        <v>1.046562545062618</v>
+        <v>1.028018715397979</v>
       </c>
       <c r="K24">
-        <v>1.052695145887964</v>
+        <v>1.036876060464377</v>
       </c>
       <c r="L24">
-        <v>1.042213047357205</v>
+        <v>1.021624183332249</v>
       </c>
       <c r="M24">
-        <v>1.062538990325189</v>
+        <v>1.040354589465688</v>
       </c>
       <c r="N24">
-        <v>1.019342845225041</v>
+        <v>1.012710694305878</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.042115464993377</v>
+        <v>1.009293563032227</v>
       </c>
       <c r="D25">
-        <v>1.05075845095103</v>
+        <v>1.030087777579004</v>
       </c>
       <c r="E25">
-        <v>1.040310722493766</v>
+        <v>1.014737057658886</v>
       </c>
       <c r="F25">
-        <v>1.060904716680806</v>
+        <v>1.034743127454116</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043983189102252</v>
+        <v>1.048452312398088</v>
       </c>
       <c r="J25">
-        <v>1.047670513193927</v>
+        <v>1.033512159103743</v>
       </c>
       <c r="K25">
-        <v>1.053764700392008</v>
+        <v>1.042236307806156</v>
       </c>
       <c r="L25">
-        <v>1.043349143009977</v>
+        <v>1.027110827569527</v>
       </c>
       <c r="M25">
-        <v>1.063880384218365</v>
+        <v>1.0468250211928</v>
       </c>
       <c r="N25">
-        <v>1.01971982215533</v>
+        <v>1.014604857603921</v>
       </c>
     </row>
   </sheetData>
